--- a/BioChainS_Biomass_to_end_use_chain_simulation/BioChainS_Input.xlsx
+++ b/BioChainS_Biomass_to_end_use_chain_simulation/BioChainS_Input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="7410" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="7410" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sourcing" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <definedName name="potential">#REF!</definedName>
     <definedName name="results">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="293">
   <si>
     <t>Characteristic</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>€/t</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>Yield cofired power plant</t>
   </si>
   <si>
-    <t>€/GJ_out</t>
-  </si>
-  <si>
     <t>without fuel</t>
   </si>
   <si>
@@ -287,12 +281,6 @@
     <t>(Meerman et al., 2012) Table.1</t>
   </si>
   <si>
-    <t>based on Invert/EE-Lab</t>
-  </si>
-  <si>
-    <t>€2012/GJ_out</t>
-  </si>
-  <si>
     <t>€/MWh</t>
   </si>
   <si>
@@ -326,9 +314,6 @@
     <t>Co_syn</t>
   </si>
   <si>
-    <t>Based on D3.7 Table17 and based on  (Lüschen and Madlener, 2013) Fig.5</t>
-  </si>
-  <si>
     <t>Mositure content</t>
   </si>
   <si>
@@ -398,24 +383,9 @@
     <t>Truck_oil</t>
   </si>
   <si>
-    <t>b.o. (Rotter and Rohrhofer, 2014), Table37</t>
-  </si>
-  <si>
     <t>(Un-) loading cost</t>
   </si>
   <si>
-    <t>o.a.b.o. (Rotter and Rohrhofer, 2014), Table30</t>
-  </si>
-  <si>
-    <t>o.a.b.o. (Hoefnagels et al., 2013)</t>
-  </si>
-  <si>
-    <t>o.a.b.o. (Hoefnagels et al., 2013)*</t>
-  </si>
-  <si>
-    <t>€2014/t*km</t>
-  </si>
-  <si>
     <t>z_cost</t>
   </si>
   <si>
@@ -434,9 +404,6 @@
     <t>Bales (15 wt%)</t>
   </si>
   <si>
-    <t>b.o. (Obernberger and Thek, 2010)</t>
-  </si>
-  <si>
     <t>wet basis</t>
   </si>
   <si>
@@ -464,9 +431,6 @@
     <t>(Francescato et al., 2008), Table 1.6</t>
   </si>
   <si>
-    <t>b.o. (Francescato et al., 2008), Table 2.7.1</t>
-  </si>
-  <si>
     <t>Biosyncrude_wheat</t>
   </si>
   <si>
@@ -476,9 +440,6 @@
     <t>(Hoefnagels et al., 2013), Table 5</t>
   </si>
   <si>
-    <t>b.o. (Rotter and Rohrhofer, 2014), Table 36</t>
-  </si>
-  <si>
     <t>(Hoefnagels et al., 2011) Table 3-5</t>
   </si>
   <si>
@@ -494,9 +455,6 @@
     <t>Ind_syn</t>
   </si>
   <si>
-    <t>based on Invert/EE-Lab wie in SECTOR</t>
-  </si>
-  <si>
     <t>Based on  (Lüschen and Madlener, 2013) Fig.5</t>
   </si>
   <si>
@@ -527,27 +485,15 @@
     <t>(Rotter and Rohrhofer, 2014), Table 27</t>
   </si>
   <si>
-    <t>€/tDM</t>
-  </si>
-  <si>
-    <t>€/tDMkm</t>
-  </si>
-  <si>
     <t>(Pudelko et al., 2015), Fig11</t>
   </si>
   <si>
     <t>(Mireles et al., 2015)  - Annex J</t>
   </si>
   <si>
-    <t>b.o. (Mireles et al., 2015)  - Annex J</t>
-  </si>
-  <si>
     <t>(Arpiainen et al., 2014), Table 10</t>
   </si>
   <si>
-    <t>M€_2014</t>
-  </si>
-  <si>
     <t>(Koppejan et al., 2015) Table3.2</t>
   </si>
   <si>
@@ -569,12 +515,6 @@
     <t>including backhaul!</t>
   </si>
   <si>
-    <t>€2014/GJ_out</t>
-  </si>
-  <si>
-    <t>Held et al 2014</t>
-  </si>
-  <si>
     <t>of which 24.5% electricity</t>
   </si>
   <si>
@@ -596,9 +536,6 @@
     <t>Y_rev</t>
   </si>
   <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
     <t>Average in 2014 EU28 w/o taxes and levies</t>
   </si>
   <si>
@@ -617,18 +554,9 @@
     <t>Average Brent crude oil spot prices 2014</t>
   </si>
   <si>
-    <t>€2014/m^3*a</t>
-  </si>
-  <si>
-    <t>€2014/t</t>
-  </si>
-  <si>
     <t>(Gerssen-Gondelach et al., 2014) Table3*</t>
   </si>
   <si>
-    <t>o.a.b.o.  (Tank Storage Magazine, 2012)</t>
-  </si>
-  <si>
     <t>Interest rate 4%, 25 years and 7.6% O&amp;M</t>
   </si>
   <si>
@@ -647,12 +575,6 @@
     <t>€2014/GJ</t>
   </si>
   <si>
-    <t>EC Bulletin</t>
-  </si>
-  <si>
-    <t>based on Invert/EE-lab, Eurostat, EC Bulletin and OSCE library</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
@@ -810,12 +732,192 @@
   </si>
   <si>
     <t>Delivery Mode</t>
+  </si>
+  <si>
+    <t>€2017/t*km</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/383500/northwest-europe-coal-marker-price/</t>
+  </si>
+  <si>
+    <t>$/metric ton</t>
+  </si>
+  <si>
+    <t>Coal price 2017 household (northwest Europe)</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Average price for OECD EU without taxes and levies</t>
+  </si>
+  <si>
+    <t>$/toe NCV</t>
+  </si>
+  <si>
+    <t>(OECD, IEA, 2018)</t>
+  </si>
+  <si>
+    <t>Automotive Diesel (World average)</t>
+  </si>
+  <si>
+    <t>Gasoline (world average)</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>$/l</t>
+  </si>
+  <si>
+    <t>(IEA, 2018)</t>
+  </si>
+  <si>
+    <t>World 2017</t>
+  </si>
+  <si>
+    <t>EU 2016</t>
+  </si>
+  <si>
+    <t>$/€</t>
+  </si>
+  <si>
+    <t>EUR USD</t>
+  </si>
+  <si>
+    <t>(Statista, 2018)</t>
+  </si>
+  <si>
+    <t>with 38GJ/l (http://www.world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx)</t>
+  </si>
+  <si>
+    <t>Diesel EU average</t>
+  </si>
+  <si>
+    <t>€/1000L</t>
+  </si>
+  <si>
+    <t>(EC, 2018)</t>
+  </si>
+  <si>
+    <t>Heating Oil</t>
+  </si>
+  <si>
+    <t>Heating Oil EU average</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>EU 2017 Min</t>
+  </si>
+  <si>
+    <t>EU 2017 Max</t>
+  </si>
+  <si>
+    <t>EU 2017 Ave</t>
+  </si>
+  <si>
+    <t>(Eurostat, 2018)</t>
+  </si>
+  <si>
+    <t>EU 2017 AVe</t>
+  </si>
+  <si>
+    <t>Household EU Average</t>
+  </si>
+  <si>
+    <t>Largest consumer EU Average (&gt;150GWh)</t>
+  </si>
+  <si>
+    <t>€2017/GJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU28 Maximum heating costs for residential </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU28 Minimum heating costs for residential </t>
+  </si>
+  <si>
+    <t>€2017/t</t>
+  </si>
+  <si>
+    <t>€2017/m^3*a</t>
+  </si>
+  <si>
+    <t>€2017/GJ_out</t>
+  </si>
+  <si>
+    <t>Based on (Arpiainen et al., 2015) Table17 and based on  (Lüschen and Madlener, 2013) Fig.5</t>
+  </si>
+  <si>
+    <t>based on (ENTRANZE, 2014)</t>
+  </si>
+  <si>
+    <t>(Held et al., 2014)</t>
+  </si>
+  <si>
+    <t>based on (Rotter and Rohrhofer, 2014), Table 36</t>
+  </si>
+  <si>
+    <t>based on (Rotter and Rohrhofer, 2014), Table37</t>
+  </si>
+  <si>
+    <t>based on (Hoefnagels et al., 2013)</t>
+  </si>
+  <si>
+    <t>based on (Rotter and Rohrhofer, 2014), Table30</t>
+  </si>
+  <si>
+    <t>based on  (Tank Storage Magazine, 2012)</t>
+  </si>
+  <si>
+    <t>based on (Francescato et al., 2008), Table 2.7.1</t>
+  </si>
+  <si>
+    <t>based on (Mireles et al., 2015)  - Annex J</t>
+  </si>
+  <si>
+    <t>based on (Obernberger and Thek, 2010)</t>
+  </si>
+  <si>
+    <t>€_2017/GJ_out</t>
+  </si>
+  <si>
+    <t>M€_2017</t>
+  </si>
+  <si>
+    <t>€_2017/t</t>
+  </si>
+  <si>
+    <t>based on (ENTRANZE, 2014), Eurostat, EC Bulletin and OSCE library</t>
+  </si>
+  <si>
+    <t>based on (ENTRANZE, 2014), (Eurostat, 2018), (EC, 2018) and (OECD, IEA, 2018)</t>
+  </si>
+  <si>
+    <t>€_2017/GJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD Total 2017 </t>
+  </si>
+  <si>
+    <t>(OECD,IEA, 2018)</t>
+  </si>
+  <si>
+    <t>NG for Industry</t>
+  </si>
+  <si>
+    <t>€_2017/tDM</t>
+  </si>
+  <si>
+    <t>€_2017/tDMkm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]\-&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -861,11 +963,6 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1049,6 +1146,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1308,107 +1412,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1435,105 +1538,104 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="62" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="62" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="124">
     <cellStyle name="20% - Akzent1" xfId="1"/>
     <cellStyle name="20% - Akzent1 2" xfId="2"/>
-    <cellStyle name="20% - Akzent1 2 2" xfId="100"/>
-    <cellStyle name="20% - Akzent1 3" xfId="101"/>
+    <cellStyle name="20% - Akzent1 2 2" xfId="99"/>
+    <cellStyle name="20% - Akzent1 3" xfId="100"/>
     <cellStyle name="20% - Akzent2" xfId="3"/>
     <cellStyle name="20% - Akzent2 2" xfId="4"/>
-    <cellStyle name="20% - Akzent2 2 2" xfId="103"/>
-    <cellStyle name="20% - Akzent2 3" xfId="102"/>
+    <cellStyle name="20% - Akzent2 2 2" xfId="102"/>
+    <cellStyle name="20% - Akzent2 3" xfId="101"/>
     <cellStyle name="20% - Akzent3" xfId="5"/>
     <cellStyle name="20% - Akzent3 2" xfId="6"/>
-    <cellStyle name="20% - Akzent3 2 2" xfId="105"/>
-    <cellStyle name="20% - Akzent3 3" xfId="104"/>
+    <cellStyle name="20% - Akzent3 2 2" xfId="104"/>
+    <cellStyle name="20% - Akzent3 3" xfId="103"/>
     <cellStyle name="20% - Akzent4" xfId="7"/>
     <cellStyle name="20% - Akzent4 2" xfId="8"/>
-    <cellStyle name="20% - Akzent4 2 2" xfId="107"/>
-    <cellStyle name="20% - Akzent4 3" xfId="106"/>
+    <cellStyle name="20% - Akzent4 2 2" xfId="106"/>
+    <cellStyle name="20% - Akzent4 3" xfId="105"/>
     <cellStyle name="20% - Akzent5" xfId="9"/>
     <cellStyle name="20% - Akzent5 2" xfId="10"/>
-    <cellStyle name="20% - Akzent5 2 2" xfId="109"/>
-    <cellStyle name="20% - Akzent5 3" xfId="108"/>
+    <cellStyle name="20% - Akzent5 2 2" xfId="108"/>
+    <cellStyle name="20% - Akzent5 3" xfId="107"/>
     <cellStyle name="20% - Akzent6" xfId="11"/>
     <cellStyle name="20% - Akzent6 2" xfId="12"/>
-    <cellStyle name="20% - Akzent6 2 2" xfId="111"/>
-    <cellStyle name="20% - Akzent6 3" xfId="110"/>
+    <cellStyle name="20% - Akzent6 2 2" xfId="110"/>
+    <cellStyle name="20% - Akzent6 3" xfId="109"/>
     <cellStyle name="40% - Akzent1" xfId="13"/>
     <cellStyle name="40% - Akzent1 2" xfId="14"/>
-    <cellStyle name="40% - Akzent1 2 2" xfId="113"/>
-    <cellStyle name="40% - Akzent1 3" xfId="112"/>
+    <cellStyle name="40% - Akzent1 2 2" xfId="112"/>
+    <cellStyle name="40% - Akzent1 3" xfId="111"/>
     <cellStyle name="40% - Akzent2" xfId="15"/>
     <cellStyle name="40% - Akzent2 2" xfId="16"/>
-    <cellStyle name="40% - Akzent2 2 2" xfId="115"/>
-    <cellStyle name="40% - Akzent2 3" xfId="114"/>
+    <cellStyle name="40% - Akzent2 2 2" xfId="114"/>
+    <cellStyle name="40% - Akzent2 3" xfId="113"/>
     <cellStyle name="40% - Akzent3" xfId="17"/>
     <cellStyle name="40% - Akzent3 2" xfId="18"/>
-    <cellStyle name="40% - Akzent3 2 2" xfId="117"/>
-    <cellStyle name="40% - Akzent3 3" xfId="116"/>
+    <cellStyle name="40% - Akzent3 2 2" xfId="116"/>
+    <cellStyle name="40% - Akzent3 3" xfId="115"/>
     <cellStyle name="40% - Akzent4" xfId="19"/>
     <cellStyle name="40% - Akzent4 2" xfId="20"/>
-    <cellStyle name="40% - Akzent4 2 2" xfId="119"/>
-    <cellStyle name="40% - Akzent4 3" xfId="118"/>
+    <cellStyle name="40% - Akzent4 2 2" xfId="118"/>
+    <cellStyle name="40% - Akzent4 3" xfId="117"/>
     <cellStyle name="40% - Akzent5" xfId="21"/>
     <cellStyle name="40% - Akzent5 2" xfId="22"/>
-    <cellStyle name="40% - Akzent5 2 2" xfId="121"/>
-    <cellStyle name="40% - Akzent5 3" xfId="120"/>
+    <cellStyle name="40% - Akzent5 2 2" xfId="120"/>
+    <cellStyle name="40% - Akzent5 3" xfId="119"/>
     <cellStyle name="40% - Akzent6" xfId="23"/>
     <cellStyle name="40% - Akzent6 2" xfId="24"/>
-    <cellStyle name="40% - Akzent6 2 2" xfId="123"/>
-    <cellStyle name="40% - Akzent6 3" xfId="122"/>
+    <cellStyle name="40% - Akzent6 2 2" xfId="122"/>
+    <cellStyle name="40% - Akzent6 3" xfId="121"/>
     <cellStyle name="60% - Akzent1" xfId="25"/>
     <cellStyle name="60% - Akzent1 2" xfId="26"/>
     <cellStyle name="60% - Akzent2" xfId="27"/>
@@ -1554,6 +1656,7 @@
     <cellStyle name="Akzent6 2" xfId="42"/>
     <cellStyle name="Ausgabe 2" xfId="43"/>
     <cellStyle name="Berechnung 2" xfId="44"/>
+    <cellStyle name="Comma" xfId="53" builtinId="3"/>
     <cellStyle name="Dezimal 2" xfId="45"/>
     <cellStyle name="Eingabe 2" xfId="46"/>
     <cellStyle name="Ergebnis 2" xfId="47"/>
@@ -1562,55 +1665,53 @@
     <cellStyle name="Hyperlink 2" xfId="50"/>
     <cellStyle name="Hyperlink 2 2" xfId="51"/>
     <cellStyle name="Hyperlink 2 3" xfId="52"/>
-    <cellStyle name="Komma" xfId="53" builtinId="3"/>
     <cellStyle name="Komma 2" xfId="54"/>
     <cellStyle name="Komma 3" xfId="55"/>
     <cellStyle name="Neutral 2" xfId="56"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="57"/>
-    <cellStyle name="Normal_Chip Prices" xfId="58"/>
-    <cellStyle name="Normale 2" xfId="59"/>
-    <cellStyle name="Notiz 2" xfId="60"/>
-    <cellStyle name="Notiz 2 2" xfId="61"/>
-    <cellStyle name="Notiz 2 3" xfId="62"/>
-    <cellStyle name="Notiz 2 3 2" xfId="124"/>
-    <cellStyle name="Prozent" xfId="63" builtinId="5"/>
-    <cellStyle name="Prozent 2" xfId="64"/>
-    <cellStyle name="Prozent 2 2" xfId="65"/>
-    <cellStyle name="Prozent 2 3" xfId="66"/>
-    <cellStyle name="Prozent 2 4" xfId="67"/>
-    <cellStyle name="Schlecht 2" xfId="68"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="69"/>
-    <cellStyle name="Standard 2 2" xfId="70"/>
-    <cellStyle name="Standard 2 2 2" xfId="71"/>
-    <cellStyle name="Standard 2 3" xfId="72"/>
-    <cellStyle name="Standard 2 4" xfId="73"/>
-    <cellStyle name="Standard 2 5" xfId="74"/>
-    <cellStyle name="Standard 2 6" xfId="75"/>
-    <cellStyle name="Standard 3" xfId="76"/>
-    <cellStyle name="Standard 3 2" xfId="77"/>
-    <cellStyle name="Standard 3 2 2" xfId="78"/>
-    <cellStyle name="Standard 3 2 3" xfId="79"/>
-    <cellStyle name="Standard 3 3" xfId="80"/>
-    <cellStyle name="Standard 3 4" xfId="81"/>
-    <cellStyle name="Standard 3 5" xfId="82"/>
-    <cellStyle name="Standard 4" xfId="83"/>
-    <cellStyle name="Standard 4 2" xfId="84"/>
-    <cellStyle name="Standard 4 3" xfId="85"/>
-    <cellStyle name="Standard 5" xfId="86"/>
-    <cellStyle name="Standard 5 2" xfId="87"/>
-    <cellStyle name="Standard 6" xfId="88"/>
-    <cellStyle name="Standard 7" xfId="89"/>
-    <cellStyle name="Überschrift 1 2" xfId="90"/>
-    <cellStyle name="Überschrift 2 2" xfId="91"/>
-    <cellStyle name="Überschrift 3 2" xfId="92"/>
-    <cellStyle name="Überschrift 4 2" xfId="93"/>
-    <cellStyle name="Überschrift 5" xfId="94"/>
-    <cellStyle name="Überschrift 5 2" xfId="95"/>
-    <cellStyle name="Überschrift 5 3" xfId="96"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="97"/>
-    <cellStyle name="Warnender Text 2" xfId="98"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="99"/>
+    <cellStyle name="Normale 2" xfId="58"/>
+    <cellStyle name="Notiz 2" xfId="59"/>
+    <cellStyle name="Notiz 2 2" xfId="60"/>
+    <cellStyle name="Notiz 2 3" xfId="61"/>
+    <cellStyle name="Notiz 2 3 2" xfId="123"/>
+    <cellStyle name="Percent" xfId="62" builtinId="5"/>
+    <cellStyle name="Prozent 2" xfId="63"/>
+    <cellStyle name="Prozent 2 2" xfId="64"/>
+    <cellStyle name="Prozent 2 3" xfId="65"/>
+    <cellStyle name="Prozent 2 4" xfId="66"/>
+    <cellStyle name="Schlecht 2" xfId="67"/>
+    <cellStyle name="Standard 2" xfId="68"/>
+    <cellStyle name="Standard 2 2" xfId="69"/>
+    <cellStyle name="Standard 2 2 2" xfId="70"/>
+    <cellStyle name="Standard 2 3" xfId="71"/>
+    <cellStyle name="Standard 2 4" xfId="72"/>
+    <cellStyle name="Standard 2 5" xfId="73"/>
+    <cellStyle name="Standard 2 6" xfId="74"/>
+    <cellStyle name="Standard 3" xfId="75"/>
+    <cellStyle name="Standard 3 2" xfId="76"/>
+    <cellStyle name="Standard 3 2 2" xfId="77"/>
+    <cellStyle name="Standard 3 2 3" xfId="78"/>
+    <cellStyle name="Standard 3 3" xfId="79"/>
+    <cellStyle name="Standard 3 4" xfId="80"/>
+    <cellStyle name="Standard 3 5" xfId="81"/>
+    <cellStyle name="Standard 4" xfId="82"/>
+    <cellStyle name="Standard 4 2" xfId="83"/>
+    <cellStyle name="Standard 4 3" xfId="84"/>
+    <cellStyle name="Standard 5" xfId="85"/>
+    <cellStyle name="Standard 5 2" xfId="86"/>
+    <cellStyle name="Standard 6" xfId="87"/>
+    <cellStyle name="Standard 7" xfId="88"/>
+    <cellStyle name="Überschrift 1 2" xfId="89"/>
+    <cellStyle name="Überschrift 2 2" xfId="90"/>
+    <cellStyle name="Überschrift 3 2" xfId="91"/>
+    <cellStyle name="Überschrift 4 2" xfId="92"/>
+    <cellStyle name="Überschrift 5" xfId="93"/>
+    <cellStyle name="Überschrift 5 2" xfId="94"/>
+    <cellStyle name="Überschrift 5 3" xfId="95"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="96"/>
+    <cellStyle name="Warnender Text 2" xfId="97"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="98"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1618,14 +1719,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1663,9 +1767,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1700,7 +1804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1735,7 +1839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1914,13 +2018,13 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="1" max="1" width="9.140625" style="36"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -1930,8 +2034,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1940,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1960,13 +2064,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1">
         <v>193</v>
@@ -1975,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -1987,7 +2091,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2000,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2008,22 +2112,23 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F4" s="22">
-        <v>75</v>
+        <f>75*1.02^3</f>
+        <v>79.590599999999995</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2034,20 +2139,20 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="20">
-        <f>AVERAGE(30,40,80)</f>
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="F5" s="22">
+        <f>AVERAGE(30,40,80)*1.02^3</f>
+        <v>53.060399999999994</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>166</v>
+        <v>284</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2055,10 +2160,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F6" s="20">
         <v>17.2</v>
@@ -2067,7 +2172,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2078,10 +2183,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F7" s="22">
         <f>AVERAGE(18.4188)</f>
@@ -2091,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2100,7 +2205,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -2109,10 +2214,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2121,19 +2226,19 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F9" s="20">
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2141,23 +2246,23 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <f>AVERAGE(0.67,5.52)</f>
         <v>3.0949999999999998</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2165,23 +2270,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <f>7.5*(1+0.3)/100</f>
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -2190,23 +2295,23 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F12" s="19">
         <f>60/17.2</f>
         <v>3.4883720930232558</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -2215,23 +2320,23 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F13" s="19">
         <f>AVERAGE(2,22)/18.4</f>
         <v>0.65217391304347827</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2247,12 +2352,12 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A65536"/>
+      <selection activeCell="G6" sqref="G6:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="36"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
@@ -2261,8 +2366,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -2271,13 +2376,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2289,13 +2394,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -2313,13 +2418,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -2337,11 +2442,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
@@ -2359,10 +2464,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -2375,28 +2480,28 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F6" s="21">
-        <f>AVERAGE(3.06,3.01,2.85,1.89,1.46,1.42,1.32,0.68,0.95,0.93,0.89,0.65,2.11,2.05,1.89,0.93)</f>
-        <v>1.630625</v>
+        <f>AVERAGE(3.06,3.01,2.85,1.89,1.46,1.42,1.32,0.68,0.95,0.93,0.89,0.65,2.11,2.05,1.89,0.93)*1.02^3</f>
+        <v>1.730432295</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>37</v>
@@ -2404,23 +2509,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F7" s="21">
-        <f>AVERAGE(6.05,5.62,3.72,2.44,2.2,1.13,4.22,3.98,2.91,6.27,5.63,2.77)</f>
-        <v>3.9116666666666666</v>
-      </c>
-      <c r="G7" t="s">
-        <v>164</v>
+        <f>AVERAGE(6.05,5.62,3.72,2.44,2.2,1.13,4.22,3.98,2.91,6.27,5.63,2.77)*1.02^3</f>
+        <v>4.1510919599999996</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -2428,23 +2533,23 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F8" s="21">
-        <f>AVERAGE(3.06,3.01,2.85,1.89,1.46,1.42,1.32,0.68,0.95,0.93,0.89,0.65,2.11,2.05,1.89,0.93)</f>
-        <v>1.630625</v>
-      </c>
-      <c r="G8" t="s">
-        <v>164</v>
+        <f>AVERAGE(3.06,3.01,2.85,1.89,1.46,1.42,1.32,0.68,0.95,0.93,0.89,0.65,2.11,2.05,1.89,0.93)*1.02^3</f>
+        <v>1.730432295</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>37</v>
@@ -2452,23 +2557,23 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F9" s="21">
-        <f>AVERAGE(6.05,5.62,3.72,2.44,2.2,1.13,4.22,3.98,2.91,6.27,5.63,2.77)</f>
-        <v>3.9116666666666666</v>
-      </c>
-      <c r="G9" t="s">
-        <v>164</v>
+        <f>AVERAGE(6.05,5.62,3.72,2.44,2.2,1.13,4.22,3.98,2.91,6.27,5.63,2.77)*1.02^3</f>
+        <v>4.1510919599999996</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>37</v>
@@ -2476,23 +2581,23 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F10" s="21">
-        <f>AVERAGE(0.45,0.23)</f>
-        <v>0.34</v>
+        <f>AVERAGE(0.45,0.23)*1.02^3</f>
+        <v>0.36081072000000003</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>36</v>
@@ -2500,23 +2605,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="21">
-        <f>AVERAGE(0.25,0.48)</f>
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>165</v>
+        <f>AVERAGE(0.25,0.48)*1.02^3</f>
+        <v>0.38734091999999998</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -2524,22 +2629,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
+        <f>0.15*1.02^3</f>
+        <v>0.15918119999999999</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>36</v>
@@ -2548,23 +2654,23 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="21">
-        <f>AVERAGE(0.29,0.11)</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="G13" t="s">
-        <v>165</v>
+        <f>AVERAGE(0.29,0.11)*1.02^3</f>
+        <v>0.21224159999999997</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>36</v>
@@ -2572,74 +2678,74 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F14" s="6">
-        <f>(1.2/60)*33.14</f>
-        <v>0.66280000000000006</v>
-      </c>
-      <c r="G14" t="s">
-        <v>164</v>
+        <f>(1.2/60)*33.14*1.02^3</f>
+        <v>0.70336866240000007</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F15" s="6">
-        <f>(1.9/60)*33.14</f>
-        <v>1.0494333333333332</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>164</v>
+        <f>(1.9/60)*33.14*1.02^3</f>
+        <v>1.1136670487999998</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F16" s="6">
-        <f>(1.2/60)*38.47</f>
-        <v>0.76939999999999997</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>164</v>
+        <f>(1.2/60)*38.47*1.02^3</f>
+        <v>0.81649343519999995</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F17" s="6">
-        <f>(1.9/60)*38.47</f>
-        <v>1.2182166666666665</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>164</v>
+        <f>(1.9/60)*38.47*1.02^3</f>
+        <v>1.2927812723999998</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -2693,13 +2799,13 @@
   </sheetPr>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A65536"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="1" max="1" width="9.140625" style="36"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
@@ -2718,8 +2824,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2728,13 +2834,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2745,357 +2851,361 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="18">
-        <f>64072268.23/1000000*1.02^2</f>
-        <v>66.660787866491987</v>
+        <f>64072268.23/1000000*1.02^5</f>
+        <v>70.740961370224241</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="20">
         <v>148056</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F4" s="21">
-        <v>4.5225545023297276</v>
+        <f>4.52255450232973*1.02^3</f>
+        <v>4.799371018308328</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="28">
         <v>0.56000000000000005</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="22">
-        <f>3.7433*1.02^4</f>
-        <v>4.051868304528</v>
+        <f>3.7433*1.02^7</f>
+        <v>4.2998750597115496</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="20">
         <v>40000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F8" s="21">
-        <v>1.7371060070671378</v>
+        <f>1.73710600706714*1.02^3</f>
+        <v>1.8434307915477055</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="28">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="22">
-        <f>3.7433*1.02^4</f>
-        <v>4.051868304528</v>
+        <f>3.7433*1.02^7</f>
+        <v>4.2998750597115496</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="20">
         <v>40000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F12" s="21">
-        <v>1.536253125</v>
+        <f>1.536253125*1.02^3</f>
+        <v>1.630284106275</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="28">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="20">
-        <f>22.5*1.3</f>
-        <v>29.25</v>
+        <f>22.5*1.3*1.02^3</f>
+        <v>31.040333999999998</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="20">
         <v>100000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F16" s="21">
-        <v>2.3919999999999999</v>
+        <f>2.392*1.02^3</f>
+        <v>2.5384095359999996</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -3105,90 +3215,91 @@
         <v>0.88666666666666671</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="20">
-        <f>AVERAGE(20,25)</f>
-        <v>22.5</v>
+        <f>AVERAGE(20,25)*1.02^3</f>
+        <v>23.877179999999999</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="20">
         <v>100000</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F20" s="21">
-        <v>1.825</v>
+        <f>1.825*1.02^3</f>
+        <v>1.9367045999999999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -3198,93 +3309,93 @@
         <v>0.88666666666666671</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="29">
         <v>0.6</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K22" s="4"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="25">
         <v>0.78666666666666674</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="25">
         <v>0.78666666666666674</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>21</v>
@@ -3293,19 +3404,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>21</v>
@@ -3314,120 +3425,121 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="18">
-        <f>64072268.23/1000000*1.02^2</f>
-        <v>66.660787866491987</v>
+        <f>64072268.23/1000000*1.02^5</f>
+        <v>70.740961370224241</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="20">
         <v>148056</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F29" s="21">
-        <v>4.5225545023297276</v>
+        <f>4.52255450232973*1.02^3</f>
+        <v>4.799371018308328</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="28">
         <v>0.74</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="29">
         <v>0.68</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -3647,12 +3759,12 @@
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A65536"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="36"/>
     <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -3661,8 +3773,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -3671,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -3691,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -3704,7 +3816,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1"/>
@@ -3715,7 +3827,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -3730,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="4"/>
@@ -3748,7 +3860,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3761,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="3"/>
@@ -3787,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="3"/>
@@ -3802,7 +3914,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3815,7 +3927,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -3837,7 +3949,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="3"/>
@@ -3852,7 +3964,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3865,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="3"/>
@@ -3891,7 +4003,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -3900,10 +4012,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -3915,7 +4027,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="3"/>
@@ -3933,7 +4045,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -3946,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="3"/>
@@ -3967,7 +4079,7 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <f>(17.2*(100-15)-2.44*15)/100</f>
         <v>14.254000000000001</v>
       </c>
@@ -3975,7 +4087,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -3991,7 +4103,7 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="31">
         <f>(18.4*(100-30)-2.44*30)/100</f>
         <v>12.148</v>
       </c>
@@ -3999,17 +4111,17 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -4021,14 +4133,14 @@
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -4044,17 +4156,17 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -4066,14 +4178,14 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -4088,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4467,13 +4579,13 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A65536"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="36"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
@@ -4485,8 +4597,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -4495,13 +4607,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -4512,11 +4624,11 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -4528,7 +4640,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4537,7 +4649,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -4549,16 +4661,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
@@ -4571,7 +4683,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4580,7 +4692,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -4597,11 +4709,11 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -4614,27 +4726,27 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="32">
         <v>600</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -4642,23 +4754,23 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F8" s="21">
-        <f>1.83*2*1.02^3</f>
-        <v>3.8840212799999998</v>
+        <f>1.83*2*1.02^6</f>
+        <v>4.1217544545062408</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4667,64 +4779,64 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F9" s="21">
-        <f>2.97*2*1.02^3</f>
-        <v>6.3035755199999999</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>195</v>
+        <f>2.97*2*1.02^6</f>
+        <v>6.689404770428161</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F10" s="21">
-        <f>1.83*2*1.02^3</f>
-        <v>3.8840212799999998</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>195</v>
+        <f>1.83*2*1.02^6</f>
+        <v>4.1217544545062408</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F11" s="21">
-        <f>1.83*2*1.02^3</f>
-        <v>3.8840212799999998</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>148</v>
+        <f>1.83*2*1.02^6</f>
+        <v>4.1217544545062408</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="4"/>
@@ -4733,23 +4845,23 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="F12" s="21">
-        <f>2.97*2*1.02^3</f>
-        <v>6.3035755199999999</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>148</v>
+        <f>2.97*2*1.02^6</f>
+        <v>6.689404770428161</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="4"/>
@@ -4757,23 +4869,23 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="F13" s="21">
-        <f>1.83*2*1.02^3</f>
-        <v>3.8840212799999998</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>148</v>
+        <f>1.83*2*1.02^6</f>
+        <v>4.1217544545062408</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="4"/>
@@ -4781,25 +4893,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="35">
-        <v>8.1814625793493786E-2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>126</v>
+        <v>71</v>
+      </c>
+      <c r="F14" s="42">
+        <v>8.0314371137811674E-2</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>233</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -4807,115 +4919,115 @@
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>177</v>
+      <c r="C15" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="28">
-        <v>8.1814625793493786E-2</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="42">
+        <v>8.0314371137811674E-2</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>177</v>
+      <c r="C16" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="24">
-        <v>7.3705883600123905E-3</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
+      </c>
+      <c r="F16" s="42">
+        <v>5.6464950439157223E-3</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="28">
-        <v>2.2480400955431803E-3</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
+      </c>
+      <c r="F17" s="42">
+        <v>2.2326020914152055E-3</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>177</v>
+        <v>58</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="25">
-        <v>7.3705883600123905E-3</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
+      </c>
+      <c r="F18" s="42">
+        <v>5.6464950439157223E-3</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>177</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2.2480400955431803E-3</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
+      </c>
+      <c r="F19" s="42">
+        <v>2.2326020914152055E-3</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4923,42 +5035,44 @@
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F20" s="6">
-        <v>15.561428571428571</v>
+        <f>15.5614285714286*1.02^3</f>
+        <v>16.513912491428602</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F21" s="6">
-        <v>34.477719983261004</v>
+        <f>34.477719983261*1.02^3</f>
+        <v>36.588032267996432</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4966,6 +5080,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4974,15 +5089,15 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="36"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
@@ -4995,8 +5110,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -5005,13 +5120,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -5022,43 +5137,45 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="5">
-        <v>22.4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
+        <f>22.4*1.02^3</f>
+        <v>23.771059199999996</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5">
-        <v>22.4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>84</v>
+        <f>22.4*1.02^3</f>
+        <v>23.771059199999996</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5070,72 +5187,73 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5">
-        <v>15.3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>84</v>
+        <f>15.3*1.02^3</f>
+        <v>16.2364824</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="5">
-        <f>71*(0.39+0.1)*1.02^5/3.6+2.65*10^6/(400*6000)*3.6</f>
-        <v>14.64471420648</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>178</v>
+        <f>(71*(0.39+0.1)*1.02^5/3.6+2.65*10^6/(400*6000)*3.6)*1.02^3</f>
+        <v>15.541087873630227</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5">
-        <f>71*(0.39+0.1)*1.02^5/3.6+0.79*10^6/(400*6000)*3.6</f>
-        <v>11.854714206480001</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>97</v>
+        <f>(71*(0.39+0.1)*1.02^5/3.6+0.79*10^6/(400*6000)*3.6)*1.02^3</f>
+        <v>12.580317553630227</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5147,24 +5265,24 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5">
-        <f>12*1.02^7</f>
-        <v>13.784228011791358</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>178</v>
+        <f>12*1.02^10</f>
+        <v>14.627933039937085</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7" s="5"/>
       <c r="Q7" s="1"/>
@@ -5172,24 +5290,24 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5">
-        <f>10*1.02^7</f>
-        <v>11.486856676492799</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>178</v>
+        <f>10*1.02^10</f>
+        <v>12.189944199947572</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
@@ -5199,24 +5317,24 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="5">
-        <f>9*1.02^7</f>
-        <v>10.338171008843519</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>178</v>
+        <f>9*1.02^10</f>
+        <v>10.970949779952814</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1"/>
       <c r="M9" s="5"/>
@@ -5226,88 +5344,91 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="23">
-        <f>71*(0.39+0.1)*1.02^5/3.6</f>
-        <v>10.66971420648</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>178</v>
+        <f>71*(0.39+0.1)*1.02^8/3.6</f>
+        <v>11.322786073630228</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I10"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>150</v>
+      <c r="B11" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="23">
-        <v>33.343167165272469</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>179</v>
+        <f>33.3431671652725*1.02^3</f>
+        <v>35.384035741124492</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>151</v>
+      <c r="B12" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="23">
-        <v>33.343167165272469</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>179</v>
+        <f>33.3431671652725*1.02^3</f>
+        <v>35.384035741124492</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="M12" s="1"/>
       <c r="O12" s="5"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="27" t="s">
-        <v>152</v>
+      <c r="A13" s="36"/>
+      <c r="B13" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="23">
-        <v>33.343167165272469</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>179</v>
+        <f>33.3431671652725*1.02^3</f>
+        <v>35.384035741124492</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -5315,21 +5436,21 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4">
         <v>0.4</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -5337,36 +5458,36 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4">
         <v>0.4</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>183</v>
+        <v>88</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
         <f>43%+12%</f>
@@ -5374,31 +5495,31 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="1"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>181</v>
+        <v>89</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4">
         <f>47%+11%</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="27" t="s">
-        <v>83</v>
+      <c r="H17" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="M17" s="1"/>
       <c r="O17" s="5"/>
@@ -5407,23 +5528,23 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>182</v>
+        <v>91</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2">
         <f>49%+10%</f>
         <v>0.59</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>83</v>
+      <c r="H18" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
@@ -5432,19 +5553,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2">
         <v>0.4</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
@@ -5452,19 +5573,19 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4">
         <v>0.89</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>179</v>
+      <c r="H20" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
@@ -5474,19 +5595,19 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>180</v>
+        <v>138</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4">
         <v>0.89</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>179</v>
+      <c r="H21" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="K21" s="1"/>
       <c r="M21" s="1"/>
@@ -5496,19 +5617,19 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>180</v>
+        <v>139</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4">
         <v>0.89</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>179</v>
+      <c r="H22" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="K22" s="1"/>
       <c r="M22" s="1"/>
@@ -5518,19 +5639,19 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4">
         <v>0.84</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>84</v>
+      <c r="H23" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="K23" s="1"/>
       <c r="M23" s="1"/>
@@ -5540,21 +5661,21 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4">
         <v>0.84</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>84</v>
+      <c r="H24" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="K24" s="1"/>
       <c r="M24" s="1"/>
@@ -5564,205 +5685,216 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="4">
         <f>0.8</f>
         <v>0.8</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>84</v>
+      <c r="H25" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>78</v>
+      <c r="A26" s="36"/>
+      <c r="B26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27" t="s">
-        <v>184</v>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="I26"/>
-      <c r="O26" s="30"/>
-      <c r="R26" s="34"/>
+      <c r="M26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N26" s="1">
+        <v>84.51</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>78</v>
+      <c r="B27" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27" t="s">
-        <v>184</v>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>82</v>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F28" s="4">
         <v>0.12</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27" t="s">
-        <v>83</v>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>82</v>
+      <c r="B29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F29" s="4">
         <v>0.11</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27" t="s">
-        <v>83</v>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>75</v>
+      <c r="A30" s="36"/>
+      <c r="B30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="F30" s="2">
         <v>0.1</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27" t="s">
-        <v>83</v>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>75</v>
+      <c r="B31" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27" t="s">
-        <v>184</v>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="27"/>
+      <c r="B32" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="24"/>
       <c r="F32" s="4">
         <v>0.245</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27" t="s">
-        <v>179</v>
+      <c r="G32" s="24"/>
+      <c r="H32" s="36" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="27"/>
+      <c r="B33" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="24"/>
       <c r="F33" s="4">
         <v>0.245</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27" t="s">
-        <v>179</v>
+      <c r="G33" s="24"/>
+      <c r="H33" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="M33" s="1"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="27"/>
+      <c r="B34" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="24"/>
       <c r="F34" s="4">
         <v>0.245</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27" t="s">
-        <v>179</v>
+      <c r="G34" s="24"/>
+      <c r="H34" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="K34" s="1"/>
       <c r="M34" s="1"/>
@@ -5770,43 +5902,43 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>40</v>
+      <c r="B35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27" t="s">
-        <v>84</v>
+      <c r="G35" s="24"/>
+      <c r="H35" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="M35" s="1"/>
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>40</v>
+      <c r="B36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27" t="s">
-        <v>84</v>
+      <c r="G36" s="24"/>
+      <c r="H36" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="K36" s="1"/>
       <c r="M36" s="1"/>
@@ -5815,103 +5947,161 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>40</v>
+      <c r="B37" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27" t="s">
-        <v>84</v>
+      <c r="G37" s="24"/>
+      <c r="H37" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="31"/>
+      <c r="O37" s="27"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="34">
+        <v>14.061693592702493</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="38">
-        <v>18.704399003254444</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="38">
+        <f>0.0414222222222222/3.6*1000</f>
+        <v>11.506172839506167</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="38">
-        <v>13.638888888888888</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" s="38">
-        <v>32.190502876369521</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>205</v>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="34">
+        <f>12.8+6.3*0.06+19.5*0.09+19.2*0.54+24.1*0.2+19.2*0.11</f>
+        <v>32.233000000000004</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="B41" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="37">
+        <f>12.8+7.6*0.06+25.42*0.09+10.91*0.54+12.78*0.2+10.91*0.11</f>
+        <v>25.191300000000002</v>
+      </c>
+      <c r="G41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="37">
+        <f>12.8+7.6*0.06+102.22*0.09+18.01*0.54+13.91*0.2+18.01*0.11</f>
+        <v>36.944299999999998</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="37">
+        <f>12.8+7.6*0.06+10.56*0.09+4.73*0.54+11.4*0.2+4.73*0.11</f>
+        <v>19.5609</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5923,220 +6113,880 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="36"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="42">
+        <v>185</v>
+      </c>
+      <c r="F2" s="38">
         <v>30.67822</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>189</v>
+      <c r="G2" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="40">
+        <v>188</v>
+      </c>
+      <c r="F3" s="36">
         <v>0.75353999999999999</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>191</v>
+      <c r="G3" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>190</v>
+      <c r="B4" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="42">
+        <v>189</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="38">
         <v>23.117265898799999</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>210</v>
+      <c r="G4" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="42">
+        <v>185</v>
+      </c>
+      <c r="F5" s="38">
         <v>30.904518877349158</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>210</v>
+      <c r="G5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>10.11</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="42">
+        <v>194</v>
+      </c>
+      <c r="F7" s="38">
         <v>12.594511655172415</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>73</v>
+      <c r="G7" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="41">
+        <v>200</v>
+      </c>
+      <c r="F8" s="37">
         <v>18.704399003254444</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>73</v>
+      <c r="G8" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="38">
+        <v>13.638888888888888</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
         <v>201</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="42">
-        <v>13.638888888888888</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>227</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10">
+        <v>358.890173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.85</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.34</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15">
+        <v>463.73</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16">
+        <v>542.36</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17">
+        <v>511.78939999999994</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18">
+        <v>414.81</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19">
+        <v>506.24</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20">
+        <v>465.02399999999994</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="38">
+        <v>4.7343499999999992</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="38">
+        <v>18.013500000000001</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="38">
+        <v>10.906712500000003</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23">
+        <f>F23*3.6</f>
+        <v>39.264165000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="38">
+        <f>0.038/3.6*1000</f>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="38">
+        <f>0.368/3.6*1000</f>
+        <v>102.22222222222221</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="38">
+        <f>0.0915027027027027/3.6*1000</f>
+        <v>25.417417417417418</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="38">
+        <f>0.0277/3.6*1000</f>
+        <v>7.6944444444444438</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28" s="38">
+        <f>0.0716/3.6*1000</f>
+        <v>19.888888888888886</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="38">
+        <f>0.0414222222222222/3.6*1000</f>
+        <v>11.506172839506167</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="37">
+        <f>(F10/F14)/42</f>
+        <v>7.5619505478297526</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="38">
+        <f>(F15/$F$6)/3.6</f>
+        <v>12.741235300582481</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="38">
+        <f t="shared" ref="F32:F36" si="0">(F16/$F$6)/3.6</f>
+        <v>14.901637542587098</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="0"/>
+        <v>14.061693592702493</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="38">
+        <f t="shared" si="0"/>
+        <v>11.397131552917903</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="38">
+        <f t="shared" si="0"/>
+        <v>13.909220793493791</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="38">
+        <f t="shared" si="0"/>
+        <v>12.776788658094295</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="38">
+        <f>254.6833*1.11/11.63*1.02</f>
+        <v>24.793846282029232</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6155,47 +7005,47 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="36"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F2">
         <f>1+0.8</f>
@@ -6203,14 +7053,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>229</v>
+      <c r="B3" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>241</v>
+        <v>205</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="F3">
         <f>1-0.8</f>
@@ -6219,13 +7069,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <f>1+0.1</f>
@@ -6234,13 +7084,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>76</v>
+        <v>205</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="F5">
         <f>1-0.1</f>
@@ -6249,13 +7099,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6263,27 +7113,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="F7">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>234</v>
+      <c r="B8" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>238</v>
+        <v>205</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="F8">
         <v>0.5</v>
@@ -6291,27 +7141,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="F9">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>235</v>
+      <c r="B10" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>239</v>
+        <v>205</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -6319,632 +7169,632 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F11">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>236</v>
+      <c r="B12" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>240</v>
+        <v>205</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="F12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="40">
+    <row r="13" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="36">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="B15" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="36">
         <v>20</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>88</v>
+      <c r="G15" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="40">
+      <c r="B16" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="36">
         <v>20</v>
       </c>
-      <c r="G16" s="40" t="s">
-        <v>88</v>
+      <c r="G16" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="40">
+      <c r="B17" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="36">
         <v>20</v>
       </c>
-      <c r="G17" s="40" t="s">
-        <v>88</v>
+      <c r="G17" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="40">
+      <c r="B18" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="36">
         <v>20</v>
       </c>
-      <c r="G18" s="40" t="s">
-        <v>88</v>
+      <c r="G18" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="40">
+      <c r="B19" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="36">
         <v>20</v>
       </c>
-      <c r="G19" s="40" t="s">
-        <v>88</v>
+      <c r="G19" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
-        <v>242</v>
+      <c r="B20" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F20">
         <v>50</v>
       </c>
-      <c r="G20" s="40" t="s">
-        <v>89</v>
+      <c r="G20" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>249</v>
+      <c r="B21" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="F21">
         <v>1300</v>
       </c>
-      <c r="G21" s="40" t="s">
-        <v>89</v>
+      <c r="G21" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>249</v>
+      <c r="B22" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="F22">
         <v>200</v>
       </c>
-      <c r="G22" s="40" t="s">
-        <v>89</v>
+      <c r="G22" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>249</v>
+      <c r="B23" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="F23">
         <v>2000</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>89</v>
+      <c r="G23" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>249</v>
+      <c r="B24" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="F24">
         <v>400</v>
       </c>
-      <c r="G24" s="40" t="s">
-        <v>89</v>
+      <c r="G24" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>249</v>
+      <c r="B25" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="F25">
         <v>200</v>
       </c>
-      <c r="G25" s="40" t="s">
-        <v>89</v>
+      <c r="G25" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
-        <v>242</v>
+      <c r="B26" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>250</v>
+      <c r="B27" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="40" t="s">
-        <v>255</v>
+      <c r="G27" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>250</v>
+      <c r="B28" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="40" t="s">
-        <v>255</v>
+      <c r="G28" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>250</v>
+      <c r="B29" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="40" t="s">
-        <v>255</v>
+      <c r="G29" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>250</v>
+      <c r="B30" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>255</v>
+      <c r="G30" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>250</v>
+      <c r="B31" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="40" t="s">
-        <v>255</v>
+      <c r="G31" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
-        <v>242</v>
+      <c r="B32" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D32" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="40" t="s">
-        <v>89</v>
+      <c r="G32" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>251</v>
+      <c r="B33" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="F33">
         <v>50</v>
       </c>
-      <c r="G33" s="40" t="s">
-        <v>89</v>
+      <c r="G33" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>251</v>
+      <c r="B34" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="F34">
         <v>2000</v>
       </c>
-      <c r="G34" s="40" t="s">
-        <v>89</v>
+      <c r="G34" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>251</v>
+      <c r="B35" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="F35">
         <v>50</v>
       </c>
-      <c r="G35" s="40" t="s">
-        <v>89</v>
+      <c r="G35" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>251</v>
+      <c r="B36" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" s="40" t="s">
-        <v>89</v>
+      <c r="G36" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>251</v>
+      <c r="B37" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="F37">
         <v>15000</v>
       </c>
-      <c r="G37" s="40" t="s">
-        <v>89</v>
+      <c r="G37" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="40" t="s">
-        <v>242</v>
+      <c r="B38" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="40" t="s">
-        <v>255</v>
+      <c r="G38" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>252</v>
+      <c r="B39" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="40" t="s">
-        <v>255</v>
+      <c r="G39" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>252</v>
+      <c r="B40" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="G40" s="40" t="s">
-        <v>255</v>
+      <c r="G40" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>252</v>
+      <c r="B41" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="40" t="s">
-        <v>255</v>
+      <c r="G41" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>252</v>
+      <c r="B42" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" s="40" t="s">
-        <v>255</v>
+      <c r="G42" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>252</v>
+      <c r="B43" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" s="40" t="s">
-        <v>255</v>
+      <c r="G43" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="40" t="s">
-        <v>242</v>
+      <c r="B44" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44" s="40" t="s">
-        <v>89</v>
+      <c r="G44" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>253</v>
+      <c r="B45" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="40" t="s">
-        <v>89</v>
+      <c r="G45" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>253</v>
+      <c r="B46" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="F46">
         <v>50</v>
       </c>
-      <c r="G46" s="40" t="s">
-        <v>89</v>
+      <c r="G46" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>253</v>
+      <c r="B47" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="40" t="s">
-        <v>89</v>
+      <c r="G47" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>253</v>
+      <c r="B48" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="40" t="s">
-        <v>89</v>
+      <c r="G48" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>253</v>
+      <c r="B49" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="F49">
         <v>50</v>
       </c>
-      <c r="G49" s="40" t="s">
-        <v>89</v>
+      <c r="G49" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="40" t="s">
-        <v>242</v>
+      <c r="B50" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="40" t="s">
-        <v>255</v>
+      <c r="G50" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>254</v>
+      <c r="B51" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="40" t="s">
-        <v>255</v>
+      <c r="G51" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>254</v>
+      <c r="B52" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" s="40" t="s">
-        <v>255</v>
+      <c r="G52" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>254</v>
+      <c r="B53" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="40" t="s">
-        <v>255</v>
+      <c r="G53" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>254</v>
+      <c r="B54" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>255</v>
+      <c r="G54" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>254</v>
+      <c r="B55" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" s="40" t="s">
-        <v>255</v>
+      <c r="G55" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
